--- a/biology/Zoologie/Helix_(genre)/Helix_(genre).xlsx
+++ b/biology/Zoologie/Helix_(genre)/Helix_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Helix (« hélice » ou « spirale » en grec) est un genre d'escargots devant son nom à sa coquille enroulée. 
@@ -515,12 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Helix aperta Born, 1778
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Helix aperta Born, 1778
 Helix aspersa Muller, 1774
-Helix pomatia Linnaeus, 1758
-Liste complète
-[réf. nécessaire]
+Helix pomatia Linnaeus, 1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Helix_(genre)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_(genre)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste complète</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[réf. nécessaire]
 Helix albescens
 Helix anatolica
 Helix aperta Born, 1778
@@ -557,33 +608,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Helix_(genre)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helix_(genre)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un synonyme de Helix est Cantareus (exemple : l'espèce Cantareus aspersus a été désignée par le nom binominal (synonyme) Helix aspersa[1]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un synonyme de Helix est Cantareus (exemple : l'espèce Cantareus aspersus a été désignée par le nom binominal (synonyme) Helix aspersa).
 Noms d'espèces en synonymie
 Helix elegans Gmelin, 1791,  un synonyme de Trochoidea elegans (Gmelin, 1791), l'hélice élégant
 Helix elegans Kobelt, 1907, un synonyme de Helix cincta (O.F. Müller, 1774), l'escargot de Vénétie
